--- a/biology/Médecine/Pietro_d'Abano/Pietro_d'Abano.xlsx
+++ b/biology/Médecine/Pietro_d'Abano/Pietro_d'Abano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pietro_d%27Abano</t>
+          <t>Pietro_d'Abano</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pietro d'Abano, né à Abano Terme près de Padoue, en Vénétie, en 1250 et mort en 1316, est un médecin, philosophe et astrologue italien du Moyen Âge. En latin : Petrus de Abano, en français : Pierre d'Abano ou Pierre de Padoue.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pietro_d%27Abano</t>
+          <t>Pietro_d'Abano</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est délicat de se faire une image précise, car les faits imaginés se mélangent aux faits historiques : sa légende a été créée par Jean Trithème, Henri-Corneille Agrippa de Nettesheim, Symphorien Champier (1520), qui en ont fait un mage, ce qui ne semble pas objectivement exact.
 Pierre d'Abano est né Pietro de Sclavione vers 1250 à Abano Terme, fils de Costanza de Sclavione. 
@@ -521,7 +535,7 @@
 En astrologie, comme les auteurs arabes (Albumasar), il affirme un déterminisme astral, celui des grandes conjonctions de planètes qui expliqueraient l'apparition des religions : c'est certes astrologique, mais déterministe, en opposition avec la doctrine officielle de l'Église sur la liberté.
 De 1303 à 1310 il affine son grand livre, Conciliator differentiarum philosophorum et medicorum, mais aussi Lucidator dubitabilium astrologiae et De motu octavae sphaerae.
 En 1314 on le trouve comme enseignant, lecteur, à Trévise, payé par l'université de Padoue.
-Accusé d'hérésie, il fut traduit deux fois devant le tribunal de l'Inquisition. Au premier procès il fut acquitté. Lors du second, il mourut en prison, où il se trouvait depuis deux ans, avant le prononcé de la sentence. Son procès se poursuivit néanmoins et il fut reconnu coupable, son corps condamné à être exhumé et brûlé. Mais l'un de ses amis ayant secrètement emporté son cadavre, l'Inquisition dut se contenter de la proclamation de la sentence avec un simulacre d'exécution : il fut brûlé en effigie[1].
+Accusé d'hérésie, il fut traduit deux fois devant le tribunal de l'Inquisition. Au premier procès il fut acquitté. Lors du second, il mourut en prison, où il se trouvait depuis deux ans, avant le prononcé de la sentence. Son procès se poursuivit néanmoins et il fut reconnu coupable, son corps condamné à être exhumé et brûlé. Mais l'un de ses amis ayant secrètement emporté son cadavre, l'Inquisition dut se contenter de la proclamation de la sentence avec un simulacre d'exécution : il fut brûlé en effigie.
 </t>
         </is>
       </c>
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pietro_d%27Abano</t>
+          <t>Pietro_d'Abano</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Philosophie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans son Conciliator, il s'efforce de réaliser une synthèse des apports théoriques grecs et arabes à la médecine, tout en mettant l'accent sur certains faits moraux. 
 Certains historiens en font le fondateur de l'averroïsme padouan, c'est-à-dire d'un courant aristotélicien hostile à la scolastique, favorable à l'expérience.
